--- a/data/trans_dic/P38_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P38_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha vacunado de la gripe en la última campaña</t>
+          <t>Población que se ha vacunado de la gripe en la última campaña (tasa de respuesta: 99,63%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -572,7 +573,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +588,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +603,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>34,5%</t>
+          <t>34,81%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>51,93%</t>
+          <t>32,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>42,93%</t>
+          <t>37,32%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,17%</t>
+          <t>23,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>63,69%</t>
+          <t>34,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>60,2%</t>
+          <t>64,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>32,19%</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>58,39%</t>
+          <t>33,67%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>52,76%</t>
+          <t>52,23%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,52; 45,04</t>
+          <t>15,91; 52,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,63; 64,15</t>
+          <t>15,48; 51,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,64; 54,18</t>
+          <t>14,34; 58,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,42; 38,61</t>
+          <t>13,48; 36,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,41; 75,63</t>
+          <t>21,82; 48,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,28; 75,03</t>
+          <t>49,27; 79,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,73; 38,87</t>
+          <t>19,81; 40,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,15; 66,67</t>
+          <t>22,79; 45,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>43,88; 64,33</t>
+          <t>32,23; 66,93</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>14,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>30,71%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,4%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>29,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,49%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>27,68%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,57; 18,87</t>
+          <t>9,46; 21,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,41; 38,12</t>
+          <t>10,09; 22,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,26; 24,4</t>
+          <t>19,08; 34,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,04; 23,37</t>
+          <t>10,95; 22,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,95; 44,46</t>
+          <t>12,15; 23,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,0; 33,07</t>
+          <t>22,39; 37,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,46; 20,08</t>
+          <t>11,63; 19,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,0; 38,85</t>
+          <t>12,7; 21,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,38; 27,06</t>
+          <t>23,03; 32,71</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>37,06%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>25,7%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>46,36%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>36,32%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>41,97%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>26,87%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,46; 19,37</t>
+          <t>8,83; 20,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,07; 43,5</t>
+          <t>10,15; 22,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,02; 33,64</t>
+          <t>18,37; 34,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,88; 22,36</t>
+          <t>10,34; 22,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>39,71; 52,93</t>
+          <t>11,34; 22,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,73; 42,94</t>
+          <t>21,03; 35,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,43; 19,08</t>
+          <t>11,45; 19,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>36,83; 46,64</t>
+          <t>12,32; 20,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,48; 36,01</t>
+          <t>21,6; 33,19</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>40,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,04%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,68; 21,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,51; 40,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,27; 29,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,09; 23,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,29; 49,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,88; 44,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,82; 21,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,92; 44,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,2; 35,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17,16%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18,08%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>27,94%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16,94%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>19,14%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>35,65%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17,04%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18,64%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>31,89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13,14; 21,54</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14,02; 22,92</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21,69; 33,64</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>13,41; 20,83</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15,43; 23,4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>30,5; 42,06</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14,44; 20,32</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15,65; 21,86</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>27,89; 36,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -1072,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha vacunado de la gripe en la última campaña (tasa de respuesta: 99,63%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>44863</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>34627</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>66289</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>33216</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>39780</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>138254</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>78079</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>74407</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>204543</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>20509; 68068</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16326; 54235</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>25477; 104514</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>19202; 52607</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>25207; 56506</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>105415; 169270</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>53769; 109177</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>50364; 100434</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>126232; 262104</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>61138</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>57191</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>135504</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>73796</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>64412</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>141998</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>134934</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>121603</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>277503</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>40076; 89740</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>36639; 82568</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>98569; 178637</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>50645; 104745</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>46263; 88683</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>108790; 180929</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>103084; 171905</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>94483; 158416</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>230883; 327980</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>45916</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>43948</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>89517</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>68015</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>55836</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>110535</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>113931</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>99783</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>200051</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>29383; 68458</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>28650; 62934</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>63983; 121473</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>44289; 94449</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>38522; 76106</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>83321; 142478</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>87145; 149695</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>76635; 128848</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>160837; 247061</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>151918</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>135766</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>291310</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>175027</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>160027</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>390787</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>326944</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>295794</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>682096</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>116370; 190698</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>105312; 172148</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>226099; 350759</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>138594; 215239</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>129013; 195670</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>334338; 461035</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>277013; 389813</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>248437; 346896</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>596565; 774511</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>